--- a/Neo4j Cypher Training Master Sheet.xlsx
+++ b/Neo4j Cypher Training Master Sheet.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\neo4jcode\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8165FD-A092-4BAB-8305-49ED7CF2EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Neo4j Cypher Training Master Sh" sheetId="1" r:id="rId5"/>
+    <sheet name="Neo4j Cypher Training Master Sh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Module</t>
   </si>
@@ -227,20 +236,57 @@
   </si>
   <si>
     <t>Speeds up filtering and range queries.</t>
+  </si>
+  <si>
+    <t>MATCH (e:Employee {empId: 'E-101'}) DELETE e</t>
+  </si>
+  <si>
+    <t>Delete based on consition</t>
+  </si>
+  <si>
+    <t>MATCH (p:Part)
+WHERE p.cost &gt; 1000 AND p.category = 'Hydraulics'
+DELETE p</t>
+  </si>
+  <si>
+    <t>Delete by a Range Condition</t>
+  </si>
+  <si>
+    <t>MATCH (c:Customer {id: 'C-999'})
+DETACH DELETE c</t>
+  </si>
+  <si>
+    <t>Always detach a nd delete</t>
+  </si>
+  <si>
+    <t>MATCH (s:Supplier)
+WHERE NOT (s)-[:SUPPLIES]-&gt;()
+DETACH DELETE s</t>
+  </si>
+  <si>
+    <t>Delete based on relationship</t>
+  </si>
+  <si>
+    <t>MATCH (e:Employee) WHERE e.status = 'Terminated'
+CALL {
+  WITH e
+  DETACH DELETE e
+} IN TRANSACTIONS OF 5000 ROWS;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -251,32 +297,42 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -284,7 +340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -474,20 +530,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,9 +565,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -521,9 +582,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -538,9 +599,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -555,9 +616,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -572,9 +633,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -589,9 +650,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -606,9 +667,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -623,9 +684,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -640,9 +701,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -657,9 +718,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
@@ -674,9 +735,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -691,9 +752,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>42</v>
@@ -708,9 +769,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -725,9 +786,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -742,9 +803,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
@@ -759,9 +820,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
@@ -776,9 +837,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -793,9 +854,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>55</v>
@@ -810,9 +871,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>65</v>
@@ -827,9 +888,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>65</v>
@@ -844,7 +905,50 @@
         <v>71</v>
       </c>
     </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>